--- a/PfcAPI/FileUploaded/SampleUpdatedata.xlsx
+++ b/PfcAPI/FileUploaded/SampleUpdatedata.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Candidate ID</t>
   </si>
@@ -34,6 +34,12 @@
   </si>
   <si>
     <t>Updated Name</t>
+  </si>
+  <si>
+    <t>Updated Phone No</t>
+  </si>
+  <si>
+    <t>9038655199</t>
   </si>
 </sst>
 </file>
@@ -68,17 +74,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="8">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -113,20 +127,23 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="4"/>
-      <tableStyleElement type="headerRow" dxfId="3"/>
+      <tableStyleElement type="wholeTable" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="6"/>
     </tableStyle>
   </tableStyles>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C2" totalsRowShown="0">
-  <autoFilter ref="A1:C2"/>
-  <tableColumns count="3">
-    <tableColumn id="2" name="Candidate ID" dataDxfId="2"/>
-    <tableColumn id="1" name="Updated Name" dataDxfId="1"/>
-    <tableColumn id="4" name="Updated Date Of Joining" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D2" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:D2">
+    <filterColumn colId="3"/>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="2" name="Candidate ID" dataDxfId="5"/>
+    <tableColumn id="1" name="Updated Name" dataDxfId="4"/>
+    <tableColumn id="4" name="Updated Date Of Joining" dataDxfId="3"/>
+    <tableColumn id="3" name="Updated Phone No" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -417,20 +434,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1">
+    <row r="1" spans="1:4" s="3" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -440,8 +459,11 @@
       <c r="C1" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" s="4" customFormat="1">
+    <row r="2" spans="1:4" s="3" customFormat="1">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -450,6 +472,9 @@
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/PfcAPI/FileUploaded/SampleUpdatedata.xlsx
+++ b/PfcAPI/FileUploaded/SampleUpdatedata.xlsx
@@ -1,15 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Tanmoy\Veridata\PFC_XML\VeridataApi\PfcAPI\FileUploaded\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3379CA-6EA1-44AA-AF83-B648CCE24A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Customers" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="Candidate" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -45,8 +49,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -74,11 +78,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -126,33 +129,39 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="7"/>
       <tableStyleElement type="headerRow" dxfId="6"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D2" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:D2">
-    <filterColumn colId="3"/>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D2" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D2" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="2" name="Candidate ID" dataDxfId="5"/>
-    <tableColumn id="1" name="Updated Name" dataDxfId="4"/>
-    <tableColumn id="4" name="Updated Date Of Joining" dataDxfId="3"/>
-    <tableColumn id="3" name="Updated Phone No" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Candidate ID" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Updated Name" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Updated Date Of Joining" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Updated Phone No" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -190,7 +199,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -224,6 +233,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -258,9 +268,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -433,14 +444,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -449,31 +460,31 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="3" customFormat="1">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -484,44 +495,4 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>